--- a/app/src/main/res/raw/report3.xlsx
+++ b/app/src/main/res/raw/report3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="907" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" tabRatio="907" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Titul" sheetId="6" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1792,6 +1792,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2170,28 +2173,28 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="13" customWidth="1"/>
     <col min="8" max="9" width="6" style="13" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="13" customWidth="1"/>
     <col min="11" max="11" width="7" style="13" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="13" customWidth="1"/>
     <col min="14" max="14" width="6" style="13" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="13" customWidth="1"/>
-    <col min="18" max="16384" width="2.7109375" style="13"/>
+    <col min="15" max="15" width="7.44140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="2.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2212,7 +2215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2231,7 +2234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2250,7 +2253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -2268,7 +2271,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -2286,7 +2289,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -2304,7 +2307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="28"/>
       <c r="C7" s="19"/>
@@ -2322,7 +2325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2337,7 +2340,7 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2428,7 +2431,7 @@
       <c r="P15" s="126"/>
       <c r="Q15" s="126"/>
     </row>
-    <row r="16" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A16" s="126" t="s">
         <v>70</v>
       </c>
@@ -2567,7 +2570,7 @@
       <c r="P25" s="122"/>
       <c r="Q25" s="122"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="H26" s="31"/>
     </row>
@@ -2656,7 +2659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="129" t="s">
         <v>114</v>
       </c>
@@ -2760,21 +2763,21 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>170</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="131" t="s">
         <v>149</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="K8" s="131"/>
       <c r="L8" s="63"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
         <v>41</v>
       </c>
@@ -2842,7 +2845,7 @@
       <c r="O10" s="75"/>
       <c r="P10" s="63"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="146" t="s">
         <v>51</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2878,7 +2881,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
         <v>42</v>
       </c>
@@ -2897,7 +2900,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="146" t="s">
         <v>43</v>
       </c>
@@ -2916,7 +2919,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="137" t="s">
         <v>44</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="N15" s="76"/>
       <c r="O15" s="76"/>
     </row>
-    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="151" t="s">
         <v>150</v>
       </c>
@@ -2951,7 +2954,7 @@
       <c r="K17" s="151"/>
       <c r="L17" s="83"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="140" t="s">
         <v>232</v>
       </c>
@@ -2967,32 +2970,32 @@
       <c r="K18" s="140"/>
       <c r="L18" s="84"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23" s="82" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C25" s="82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C27" s="82" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="147" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="147"/>
       <c r="C32" s="147"/>
       <c r="D32" s="147"/>
@@ -3034,8 +3037,8 @@
       <c r="I32" s="150"/>
       <c r="J32" s="150"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A8:K8"/>
@@ -3070,17 +3073,17 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -3096,17 +3099,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="135" t="s">
         <v>164</v>
       </c>
@@ -3126,7 +3129,7 @@
       <c r="O6" s="75"/>
       <c r="P6" s="75"/>
     </row>
-    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -3144,7 +3147,7 @@
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
     </row>
-    <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="86" t="s">
         <v>163</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="93"/>
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
@@ -3176,7 +3179,7 @@
       <c r="O10" s="93"/>
       <c r="P10" s="93"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="94"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3194,7 +3197,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -3212,7 +3215,7 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
@@ -3230,7 +3233,7 @@
       <c r="O13" s="93"/>
       <c r="P13" s="93"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -3248,7 +3251,7 @@
       <c r="O14" s="47"/>
       <c r="P14" s="47"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3266,7 +3269,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="73"/>
       <c r="C16" s="74"/>
@@ -3284,7 +3287,7 @@
       <c r="O16" s="73"/>
       <c r="P16" s="73"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="95"/>
       <c r="B17" s="12"/>
       <c r="C17" s="95"/>
@@ -3302,7 +3305,7 @@
       <c r="O17" s="95"/>
       <c r="P17" s="95"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="12"/>
       <c r="C18" s="96"/>
@@ -3320,7 +3323,7 @@
       <c r="O18" s="96"/>
       <c r="P18" s="96"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3338,7 +3341,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="92"/>
       <c r="C20" s="87"/>
@@ -3356,7 +3359,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="97"/>
       <c r="D21" s="85"/>
       <c r="E21" s="88"/>
@@ -3372,7 +3375,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="72"/>
@@ -3390,7 +3393,7 @@
       <c r="O22" s="72"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -3408,7 +3411,7 @@
       <c r="O23" s="72"/>
       <c r="P23" s="72"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="101"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -3425,7 +3428,7 @@
       <c r="O24" s="72"/>
       <c r="P24" s="72"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="72"/>
       <c r="B25" s="99"/>
       <c r="J25" s="72"/>
@@ -3436,7 +3439,7 @@
       <c r="O25" s="72"/>
       <c r="P25" s="72"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="101"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -3454,7 +3457,7 @@
       <c r="O26" s="72"/>
       <c r="P26" s="72"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="76"/>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
@@ -3464,10 +3467,10 @@
       <c r="G27" s="76"/>
       <c r="H27" s="76"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28" s="98"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="101"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -3477,10 +3480,10 @@
       <c r="G29" s="101"/>
       <c r="H29" s="101"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="99"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3490,7 +3493,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="102"/>
       <c r="B32" s="102"/>
       <c r="C32" s="102"/>
@@ -3516,49 +3519,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="78" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>170</v>
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
       <c r="J4" s="51"/>
     </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A6" s="152" t="s">
         <v>168</v>
       </c>
@@ -3572,8 +3575,9 @@
       <c r="I6" s="152"/>
       <c r="J6" s="152"/>
       <c r="K6" s="152"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="L6" s="152"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="153" t="s">
         <v>237</v>
       </c>
@@ -3587,9 +3591,9 @@
       <c r="I8" s="153"/>
       <c r="J8" s="153"/>
       <c r="K8" s="153"/>
-      <c r="L8" s="63"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="L8" s="153"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
       <c r="B10" s="154"/>
       <c r="C10" s="154"/>
@@ -3607,7 +3611,7 @@
       <c r="O10" s="75"/>
       <c r="P10" s="63"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="155"/>
       <c r="B11" s="156"/>
       <c r="C11" s="157"/>
@@ -3624,7 +3628,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="154"/>
       <c r="B12" s="154"/>
       <c r="C12" s="154"/>
@@ -3641,7 +3645,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="91"/>
@@ -3658,7 +3662,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="159" t="s">
         <v>233</v>
       </c>
@@ -3677,7 +3681,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="D15" s="47"/>
@@ -3693,20 +3697,21 @@
       <c r="N15" s="76"/>
       <c r="O15" s="76"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="100"/>
       <c r="B17" s="100"/>
       <c r="D17" s="100"/>
@@ -3719,7 +3724,7 @@
       <c r="K17" s="100"/>
       <c r="L17" s="83"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -3733,7 +3738,7 @@
       <c r="K18" s="96"/>
       <c r="L18" s="84"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="91"/>
@@ -3746,7 +3751,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3759,7 +3764,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="93"/>
@@ -3772,7 +3777,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
@@ -3784,7 +3789,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="91"/>
@@ -3797,7 +3802,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
@@ -3809,7 +3814,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
@@ -3821,7 +3826,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="91"/>
@@ -3834,7 +3839,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
@@ -3846,7 +3851,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3859,7 +3864,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="91"/>
@@ -3872,7 +3877,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3885,7 +3890,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
@@ -3898,7 +3903,7 @@
       <c r="J31" s="72"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="12"/>
       <c r="C32" s="72"/>
@@ -3911,15 +3916,15 @@
       <c r="J32" s="72"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="146" t="s">
         <v>90</v>
       </c>
@@ -3935,7 +3940,7 @@
       <c r="K38" s="146"/>
       <c r="L38" s="146"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="130" t="s">
         <v>91</v>
       </c>
@@ -3950,7 +3955,7 @@
       <c r="J39" s="130"/>
       <c r="K39" s="130"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="146" t="s">
         <v>92</v>
       </c>
@@ -3966,16 +3971,17 @@
       <c r="K40" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A6:K6"/>
+  <mergeCells count="10">
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A38:L38"/>
     <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
@@ -3990,18 +3996,18 @@
   <sheetPr codeName="Лист13"/>
   <dimension ref="A2:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A80" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A80" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G2" s="52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>97</v>
       </c>
@@ -4017,27 +4023,27 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="160" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="160"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="160"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="160"/>
-      <c r="M70" s="160"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="161"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="161"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="161"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="161"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="161"/>
+      <c r="L70" s="161"/>
+      <c r="M70" s="161"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G71" s="53"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B72" s="106" t="s">
         <v>173</v>
       </c>
@@ -4052,7 +4058,7 @@
       <c r="K72" s="105"/>
       <c r="L72" s="105"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B73" s="106" t="s">
         <v>174</v>
       </c>
@@ -4069,7 +4075,7 @@
       <c r="K73" s="105"/>
       <c r="L73" s="105"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="106" t="s">
         <v>176</v>
       </c>
@@ -4086,7 +4092,7 @@
       <c r="K74" s="105"/>
       <c r="L74" s="105"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B75" s="106" t="s">
         <v>178</v>
       </c>
@@ -4103,7 +4109,7 @@
       <c r="K75" s="105"/>
       <c r="L75" s="105"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" s="106" t="s">
         <v>180</v>
       </c>
@@ -4112,16 +4118,16 @@
       <c r="E76" s="106"/>
       <c r="F76" s="106"/>
       <c r="G76" s="106"/>
-      <c r="H76" s="161">
+      <c r="H76" s="162">
         <v>13071613</v>
       </c>
-      <c r="I76" s="161"/>
-      <c r="J76" s="161"/>
-      <c r="K76" s="161"/>
-      <c r="L76" s="161"/>
-      <c r="M76" s="161"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I76" s="162"/>
+      <c r="J76" s="162"/>
+      <c r="K76" s="162"/>
+      <c r="L76" s="162"/>
+      <c r="M76" s="162"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B77" s="106" t="s">
         <v>181</v>
       </c>
@@ -4138,7 +4144,7 @@
       <c r="K77" s="105"/>
       <c r="L77" s="105"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B78" s="106" t="s">
         <v>183</v>
       </c>
@@ -4153,7 +4159,7 @@
       <c r="K78" s="105"/>
       <c r="L78" s="105"/>
     </row>
-    <row r="79" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="106" t="s">
         <v>184</v>
       </c>
@@ -4162,16 +4168,16 @@
       <c r="E79" s="106"/>
       <c r="F79" s="106"/>
       <c r="G79" s="106"/>
-      <c r="H79" s="162" t="s">
+      <c r="H79" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="I79" s="162"/>
-      <c r="J79" s="162"/>
-      <c r="K79" s="162"/>
-      <c r="L79" s="162"/>
-      <c r="M79" s="162"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I79" s="163"/>
+      <c r="J79" s="163"/>
+      <c r="K79" s="163"/>
+      <c r="L79" s="163"/>
+      <c r="M79" s="163"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" s="106" t="s">
         <v>186</v>
       </c>
@@ -4188,7 +4194,7 @@
       <c r="K80" s="105"/>
       <c r="L80" s="105"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="106" t="s">
         <v>188</v>
       </c>
@@ -4205,7 +4211,7 @@
       <c r="K81" s="105"/>
       <c r="L81" s="105"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="106" t="s">
         <v>190</v>
       </c>
@@ -4222,7 +4228,7 @@
       <c r="K82" s="105"/>
       <c r="L82" s="105"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="106" t="s">
         <v>192</v>
       </c>
@@ -4239,7 +4245,7 @@
       <c r="K83" s="105"/>
       <c r="L83" s="105"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="106" t="s">
         <v>193</v>
       </c>
@@ -4256,25 +4262,25 @@
       <c r="K84" s="105"/>
       <c r="L84" s="105"/>
     </row>
-    <row r="85" spans="2:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="162" t="s">
+    <row r="85" spans="2:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="162"/>
-      <c r="D85" s="162"/>
-      <c r="E85" s="162"/>
-      <c r="F85" s="162"/>
-      <c r="G85" s="162"/>
-      <c r="H85" s="162" t="s">
+      <c r="C85" s="163"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="163"/>
+      <c r="G85" s="163"/>
+      <c r="H85" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="I85" s="162"/>
-      <c r="J85" s="162"/>
-      <c r="K85" s="162"/>
-      <c r="L85" s="162"/>
-      <c r="M85" s="162"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I85" s="163"/>
+      <c r="J85" s="163"/>
+      <c r="K85" s="163"/>
+      <c r="L85" s="163"/>
+      <c r="M85" s="163"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="106" t="s">
         <v>196</v>
       </c>
@@ -4291,7 +4297,7 @@
       <c r="K86" s="105"/>
       <c r="L86" s="105"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="106" t="s">
         <v>198</v>
       </c>
@@ -4308,7 +4314,7 @@
       <c r="K87" s="105"/>
       <c r="L87" s="105"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="106" t="s">
         <v>200</v>
       </c>
@@ -4325,7 +4331,7 @@
       <c r="K88" s="105"/>
       <c r="L88" s="105"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="106" t="s">
         <v>202</v>
       </c>
@@ -4342,7 +4348,7 @@
       <c r="K89" s="105"/>
       <c r="L89" s="105"/>
     </row>
-    <row r="90" spans="2:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="107" t="s">
         <v>203</v>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
     </row>
-    <row r="91" spans="2:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="108" t="s">
         <v>204</v>
       </c>
@@ -4372,7 +4378,7 @@
       <c r="K91" s="105"/>
       <c r="L91" s="105"/>
     </row>
-    <row r="92" spans="2:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="106" t="s">
         <v>205</v>
       </c>
@@ -4387,7 +4393,7 @@
       <c r="K92" s="105"/>
       <c r="L92" s="105"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="106" t="s">
         <v>206</v>
       </c>
@@ -4402,7 +4408,7 @@
       <c r="K93" s="105"/>
       <c r="L93" s="105"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="106" t="s">
         <v>207</v>
       </c>
@@ -4417,7 +4423,7 @@
       <c r="K94" s="105"/>
       <c r="L94" s="105"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="106" t="s">
         <v>208</v>
       </c>
@@ -4432,7 +4438,7 @@
       <c r="K95" s="105"/>
       <c r="L95" s="105"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="106" t="s">
         <v>209</v>
       </c>
@@ -4449,7 +4455,7 @@
       <c r="K96" s="105"/>
       <c r="L96" s="105"/>
     </row>
-    <row r="97" spans="2:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="106" t="s">
         <v>210</v>
       </c>
@@ -4464,7 +4470,7 @@
       <c r="K97" s="105"/>
       <c r="L97" s="105"/>
     </row>
-    <row r="98" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="106" t="s">
         <v>211</v>
       </c>
@@ -4479,7 +4485,7 @@
       <c r="K98" s="105"/>
       <c r="L98" s="105"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="105"/>
       <c r="C99" s="105"/>
       <c r="D99" s="105"/>
@@ -4492,7 +4498,7 @@
       <c r="K99" s="105"/>
       <c r="L99" s="105"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" s="109" t="s">
         <v>212</v>
       </c>
@@ -4508,7 +4514,7 @@
       <c r="K100" s="105"/>
       <c r="L100" s="105"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="105"/>
       <c r="C101" s="105"/>
       <c r="D101" s="105"/>
@@ -4521,7 +4527,7 @@
       <c r="K101" s="105"/>
       <c r="L101" s="105"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="105" t="s">
         <v>97</v>
       </c>
@@ -4537,7 +4543,7 @@
       </c>
       <c r="L102" s="105"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="105"/>
       <c r="C103" s="105"/>
       <c r="D103" s="105"/>
@@ -4550,7 +4556,7 @@
       <c r="K103" s="105"/>
       <c r="L103" s="105"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="105"/>
       <c r="C104" s="105"/>
       <c r="D104" s="105"/>
@@ -4563,19 +4569,19 @@
       <c r="K104" s="105"/>
       <c r="L104" s="105"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="104"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="104"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="104"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="104"/>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>95</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>97</v>
       </c>
@@ -4617,9 +4623,9 @@
       <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
@@ -4657,7 +4663,7 @@
       <c r="AE1" s="28"/>
       <c r="AF1" s="28"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -4693,7 +4699,7 @@
       <c r="AD2" s="103"/>
       <c r="AF2" s="28"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -4729,7 +4735,7 @@
       <c r="AD3" s="103"/>
       <c r="AF3" s="28"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>171</v>
       </c>
@@ -4765,7 +4771,7 @@
       <c r="AD4" s="103"/>
       <c r="AF4" s="28"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -4795,7 +4801,7 @@
       <c r="AC5" s="103"/>
       <c r="AD5" s="103"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -4829,7 +4835,7 @@
       <c r="AE6" s="28"/>
       <c r="AF6" s="28"/>
     </row>
-    <row r="7" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4861,7 +4867,7 @@
       <c r="AC7" s="103"/>
       <c r="AD7" s="103"/>
     </row>
-    <row r="8" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4893,7 +4899,7 @@
       <c r="AC8" s="103"/>
       <c r="AD8" s="103"/>
     </row>
-    <row r="9" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4925,7 +4931,7 @@
       <c r="AC9" s="103"/>
       <c r="AD9" s="103"/>
     </row>
-    <row r="10" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -4957,7 +4963,7 @@
       <c r="AC10" s="103"/>
       <c r="AD10" s="103"/>
     </row>
-    <row r="11" spans="1:32" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="131" t="s">
         <v>115</v>
       </c>
@@ -4992,7 +4998,7 @@
       <c r="AD11" s="103"/>
       <c r="AE11" s="63"/>
     </row>
-    <row r="12" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5024,7 +5030,7 @@
       <c r="AC12" s="103"/>
       <c r="AD12" s="103"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="43"/>
@@ -5056,7 +5062,7 @@
       <c r="AC13" s="103"/>
       <c r="AD13" s="103"/>
     </row>
-    <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -5088,7 +5094,7 @@
       <c r="AC14" s="103"/>
       <c r="AD14" s="103"/>
     </row>
-    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
@@ -5120,7 +5126,7 @@
       <c r="AC15" s="103"/>
       <c r="AD15" s="103"/>
     </row>
-    <row r="16" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
@@ -5152,7 +5158,7 @@
       <c r="AC16" s="103"/>
       <c r="AD16" s="103"/>
     </row>
-    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -5184,7 +5190,7 @@
       <c r="AC17" s="103"/>
       <c r="AD17" s="103"/>
     </row>
-    <row r="18" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -5216,7 +5222,7 @@
       <c r="AC18" s="103"/>
       <c r="AD18" s="103"/>
     </row>
-    <row r="19" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -5248,7 +5254,7 @@
       <c r="AC19" s="103"/>
       <c r="AD19" s="103"/>
     </row>
-    <row r="20" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -5280,7 +5286,7 @@
       <c r="AC20" s="103"/>
       <c r="AD20" s="103"/>
     </row>
-    <row r="21" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -5312,7 +5318,7 @@
       <c r="AC21" s="103"/>
       <c r="AD21" s="103"/>
     </row>
-    <row r="22" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="65"/>
       <c r="C22" s="65"/>
@@ -5344,7 +5350,7 @@
       <c r="AC22" s="103"/>
       <c r="AD22" s="103"/>
     </row>
-    <row r="23" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -5376,7 +5382,7 @@
       <c r="AC23" s="103"/>
       <c r="AD23" s="103"/>
     </row>
-    <row r="24" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -5408,7 +5414,7 @@
       <c r="AC24" s="103"/>
       <c r="AD24" s="103"/>
     </row>
-    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
@@ -5440,7 +5446,7 @@
       <c r="AC25" s="103"/>
       <c r="AD25" s="103"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="45"/>
       <c r="C26" s="43"/>
@@ -5472,7 +5478,7 @@
       <c r="AC26" s="103"/>
       <c r="AD26" s="103"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="45"/>
       <c r="C27" s="43"/>
@@ -5504,7 +5510,7 @@
       <c r="AC27" s="103"/>
       <c r="AD27" s="103"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
@@ -5534,7 +5540,7 @@
       <c r="AC28" s="103"/>
       <c r="AD28" s="103"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -5564,7 +5570,7 @@
       <c r="AC29" s="103"/>
       <c r="AD29" s="103"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -5594,7 +5600,7 @@
       <c r="AC30" s="103"/>
       <c r="AD30" s="103"/>
     </row>
-    <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
@@ -5624,7 +5630,7 @@
       <c r="AC31" s="103"/>
       <c r="AD31" s="103"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="H32" s="39"/>
@@ -5651,7 +5657,7 @@
       <c r="AC32" s="103"/>
       <c r="AD32" s="103"/>
     </row>
-    <row r="33" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -5679,7 +5685,7 @@
       <c r="AC33" s="103"/>
       <c r="AD33" s="103"/>
     </row>
-    <row r="34" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5708,7 +5714,7 @@
       <c r="AC34" s="103"/>
       <c r="AD34" s="103"/>
     </row>
-    <row r="35" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -5737,7 +5743,7 @@
       <c r="AC35" s="103"/>
       <c r="AD35" s="103"/>
     </row>
-    <row r="36" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -5762,7 +5768,7 @@
       <c r="AC36" s="103"/>
       <c r="AD36" s="103"/>
     </row>
-    <row r="37" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -5788,7 +5794,7 @@
       <c r="AC37" s="103"/>
       <c r="AD37" s="103"/>
     </row>
-    <row r="38" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K38" s="103"/>
       <c r="L38" s="103"/>
       <c r="M38" s="103"/>
@@ -5810,7 +5816,7 @@
       <c r="AC38" s="103"/>
       <c r="AD38" s="103"/>
     </row>
-    <row r="39" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K39" s="103"/>
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
@@ -5832,7 +5838,7 @@
       <c r="AC39" s="103"/>
       <c r="AD39" s="103"/>
     </row>
-    <row r="40" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K40" s="103"/>
       <c r="L40" s="103"/>
       <c r="M40" s="103"/>
@@ -5854,7 +5860,7 @@
       <c r="AC40" s="103"/>
       <c r="AD40" s="103"/>
     </row>
-    <row r="41" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K41" s="103"/>
       <c r="L41" s="103"/>
       <c r="M41" s="103"/>
@@ -5876,7 +5882,7 @@
       <c r="AC41" s="103"/>
       <c r="AD41" s="103"/>
     </row>
-    <row r="42" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J42" s="43"/>
       <c r="K42" s="103"/>
       <c r="L42" s="103"/>
@@ -5900,7 +5906,7 @@
       <c r="AD42" s="103"/>
       <c r="AE42" s="64"/>
     </row>
-    <row r="43" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F43" s="64"/>
       <c r="G43" s="64"/>
       <c r="H43" s="43"/>
@@ -5928,7 +5934,7 @@
       <c r="AD43" s="103"/>
       <c r="AE43" s="64"/>
     </row>
-    <row r="44" spans="4:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I44" s="43"/>
       <c r="J44" s="43"/>
       <c r="K44" s="103"/>
@@ -5953,7 +5959,7 @@
       <c r="AD44" s="103"/>
       <c r="AE44" s="64"/>
     </row>
-    <row r="45" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K45" s="103"/>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
@@ -5975,7 +5981,7 @@
       <c r="AC45" s="103"/>
       <c r="AD45" s="103"/>
     </row>
-    <row r="46" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K46" s="103"/>
       <c r="L46" s="103"/>
       <c r="M46" s="103"/>
@@ -5997,7 +6003,7 @@
       <c r="AC46" s="103"/>
       <c r="AD46" s="103"/>
     </row>
-    <row r="47" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -6022,7 +6028,7 @@
       <c r="AC47" s="103"/>
       <c r="AD47" s="103"/>
     </row>
-    <row r="48" spans="4:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K48" s="103"/>
       <c r="L48" s="103"/>
       <c r="M48" s="103"/>
@@ -6044,7 +6050,7 @@
       <c r="AC48" s="103"/>
       <c r="AD48" s="103"/>
     </row>
-    <row r="49" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K49" s="103"/>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
@@ -6066,7 +6072,7 @@
       <c r="AC49" s="103"/>
       <c r="AD49" s="103"/>
     </row>
-    <row r="50" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K50" s="103"/>
       <c r="L50" s="103"/>
       <c r="M50" s="103"/>
@@ -6088,7 +6094,7 @@
       <c r="AC50" s="103"/>
       <c r="AD50" s="103"/>
     </row>
-    <row r="51" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K51" s="103"/>
       <c r="L51" s="103"/>
       <c r="M51" s="103"/>
@@ -6110,7 +6116,7 @@
       <c r="AC51" s="103"/>
       <c r="AD51" s="103"/>
     </row>
-    <row r="52" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K52" s="103"/>
       <c r="L52" s="103"/>
       <c r="M52" s="103"/>
@@ -6132,7 +6138,7 @@
       <c r="AC52" s="103"/>
       <c r="AD52" s="103"/>
     </row>
-    <row r="53" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K53" s="103"/>
       <c r="L53" s="103"/>
       <c r="M53" s="103"/>
@@ -6154,7 +6160,7 @@
       <c r="AC53" s="103"/>
       <c r="AD53" s="103"/>
     </row>
-    <row r="54" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K54" s="103"/>
       <c r="L54" s="103"/>
       <c r="M54" s="103"/>
@@ -6176,7 +6182,7 @@
       <c r="AC54" s="103"/>
       <c r="AD54" s="103"/>
     </row>
-    <row r="55" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K55" s="103"/>
       <c r="L55" s="103"/>
       <c r="M55" s="103"/>
@@ -6198,7 +6204,7 @@
       <c r="AC55" s="103"/>
       <c r="AD55" s="103"/>
     </row>
-    <row r="56" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K56" s="103"/>
       <c r="L56" s="103"/>
       <c r="M56" s="103"/>
@@ -6220,7 +6226,7 @@
       <c r="AC56" s="103"/>
       <c r="AD56" s="103"/>
     </row>
-    <row r="57" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K57" s="103"/>
       <c r="L57" s="103"/>
       <c r="M57" s="103"/>
@@ -6242,7 +6248,7 @@
       <c r="AC57" s="103"/>
       <c r="AD57" s="103"/>
     </row>
-    <row r="58" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
         <v>86</v>
       </c>
@@ -6277,7 +6283,7 @@
       <c r="AC58" s="103"/>
       <c r="AD58" s="103"/>
     </row>
-    <row r="59" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="28" t="s">
         <v>88</v>
       </c>
@@ -6308,7 +6314,7 @@
       <c r="AC59" s="103"/>
       <c r="AD59" s="103"/>
     </row>
-    <row r="60" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K60" s="103"/>
       <c r="L60" s="103"/>
       <c r="M60" s="103"/>
@@ -6330,7 +6336,7 @@
       <c r="AC60" s="103"/>
       <c r="AD60" s="103"/>
     </row>
-    <row r="61" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K61" s="103"/>
       <c r="L61" s="103"/>
       <c r="M61" s="103"/>
@@ -6352,7 +6358,7 @@
       <c r="AC61" s="103"/>
       <c r="AD61" s="103"/>
     </row>
-    <row r="62" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K62" s="103"/>
       <c r="L62" s="103"/>
       <c r="M62" s="103"/>
@@ -6374,7 +6380,7 @@
       <c r="AC62" s="103"/>
       <c r="AD62" s="103"/>
     </row>
-    <row r="63" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="130" t="s">
         <v>90</v>
       </c>
@@ -6408,7 +6414,7 @@
       <c r="AC63" s="103"/>
       <c r="AD63" s="103"/>
     </row>
-    <row r="64" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="130" t="s">
         <v>91</v>
       </c>
@@ -6442,7 +6448,7 @@
       <c r="AC64" s="103"/>
       <c r="AD64" s="103"/>
     </row>
-    <row r="65" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="130" t="s">
         <v>92</v>
       </c>
@@ -6476,7 +6482,7 @@
       <c r="AC65" s="103"/>
       <c r="AD65" s="103"/>
     </row>
-    <row r="66" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K66" s="103"/>
       <c r="L66" s="103"/>
       <c r="M66" s="103"/>
@@ -6498,7 +6504,7 @@
       <c r="AC66" s="103"/>
       <c r="AD66" s="103"/>
     </row>
-    <row r="67" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
       <c r="M67" s="103"/>
@@ -6520,7 +6526,7 @@
       <c r="AC67" s="103"/>
       <c r="AD67" s="103"/>
     </row>
-    <row r="68" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
       <c r="M68" s="103"/>
@@ -6542,7 +6548,7 @@
       <c r="AC68" s="103"/>
       <c r="AD68" s="103"/>
     </row>
-    <row r="69" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K69" s="103"/>
       <c r="L69" s="103"/>
       <c r="M69" s="103"/>
@@ -6564,7 +6570,7 @@
       <c r="AC69" s="103"/>
       <c r="AD69" s="103"/>
     </row>
-    <row r="70" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
       <c r="M70" s="103"/>
@@ -6586,7 +6592,7 @@
       <c r="AC70" s="103"/>
       <c r="AD70" s="103"/>
     </row>
-    <row r="71" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K71" s="103"/>
       <c r="L71" s="103"/>
       <c r="M71" s="103"/>
@@ -6608,7 +6614,7 @@
       <c r="AC71" s="103"/>
       <c r="AD71" s="103"/>
     </row>
-    <row r="72" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K72" s="103"/>
       <c r="L72" s="103"/>
       <c r="M72" s="103"/>
@@ -6630,7 +6636,7 @@
       <c r="AC72" s="103"/>
       <c r="AD72" s="103"/>
     </row>
-    <row r="73" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K73" s="103"/>
       <c r="L73" s="103"/>
       <c r="M73" s="103"/>
@@ -6652,7 +6658,7 @@
       <c r="AC73" s="103"/>
       <c r="AD73" s="103"/>
     </row>
-    <row r="74" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K74" s="103"/>
       <c r="L74" s="103"/>
       <c r="M74" s="103"/>
@@ -6674,7 +6680,7 @@
       <c r="AC74" s="103"/>
       <c r="AD74" s="103"/>
     </row>
-    <row r="75" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K75" s="103"/>
       <c r="L75" s="103"/>
       <c r="M75" s="103"/>
@@ -6696,7 +6702,7 @@
       <c r="AC75" s="103"/>
       <c r="AD75" s="103"/>
     </row>
-    <row r="76" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K76" s="103"/>
       <c r="L76" s="103"/>
       <c r="M76" s="103"/>
@@ -6718,7 +6724,7 @@
       <c r="AC76" s="103"/>
       <c r="AD76" s="103"/>
     </row>
-    <row r="77" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K77" s="103"/>
       <c r="L77" s="103"/>
       <c r="M77" s="103"/>
@@ -6740,7 +6746,7 @@
       <c r="AC77" s="103"/>
       <c r="AD77" s="103"/>
     </row>
-    <row r="78" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K78" s="103"/>
       <c r="L78" s="103"/>
       <c r="M78" s="103"/>
@@ -6786,17 +6792,17 @@
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -6830,7 +6836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>171</v>
       </c>
@@ -6841,14 +6847,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -6856,7 +6862,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="54"/>
       <c r="C7" s="19"/>
@@ -6864,7 +6870,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="66"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="132" t="s">
         <v>84</v>
       </c>
@@ -6874,7 +6880,7 @@
       <c r="E8" s="132"/>
       <c r="F8" s="132"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -6882,7 +6888,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="4"/>
       <c r="C10" s="20"/>
@@ -6890,7 +6896,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -6898,12 +6904,12 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="77" t="s">
         <v>102</v>
@@ -6919,7 +6925,7 @@
       </c>
       <c r="F13" s="46"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -6927,7 +6933,7 @@
       <c r="E14" s="80"/>
       <c r="F14" s="67"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -6935,7 +6941,7 @@
       <c r="E15" s="80"/>
       <c r="F15" s="67"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
@@ -6943,7 +6949,7 @@
       <c r="E16" s="80"/>
       <c r="F16" s="67"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
@@ -6951,7 +6957,7 @@
       <c r="E17" s="80"/>
       <c r="F17" s="67"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
@@ -6959,7 +6965,7 @@
       <c r="E18" s="80"/>
       <c r="F18" s="67"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="70"/>
       <c r="C19" s="71"/>
@@ -6967,21 +6973,21 @@
       <c r="E19" s="71"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="70"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="116"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6989,7 +6995,7 @@
       <c r="E22" s="116"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="28" t="s">
         <v>86</v>
@@ -7004,7 +7010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="28" t="s">
@@ -7018,7 +7024,7 @@
       </c>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7026,7 +7032,7 @@
       <c r="E25" s="114"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7034,7 +7040,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -7042,7 +7048,7 @@
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
@@ -7050,51 +7056,51 @@
       <c r="E28" s="34"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="70"/>
       <c r="C29" s="71"/>
       <c r="D29" s="71"/>
       <c r="E29" s="71"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="70"/>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="133" t="s">
         <v>98</v>
       </c>
@@ -7104,7 +7110,7 @@
       <c r="E48" s="133"/>
       <c r="F48" s="133"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="133" t="s">
         <v>99</v>
       </c>
@@ -7114,7 +7120,7 @@
       <c r="E49" s="133"/>
       <c r="F49" s="133"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="133" t="s">
         <v>92</v>
       </c>
@@ -7124,36 +7130,36 @@
       <c r="E50" s="133"/>
       <c r="F50" s="133"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C54" s="13"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
       <c r="F54" s="39"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" s="13"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F62" s="28"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
     </row>
@@ -7181,17 +7187,17 @@
       <selection activeCell="A47" sqref="A47:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -7225,7 +7231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>171</v>
       </c>
@@ -7236,14 +7242,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -7251,7 +7257,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A7" s="132" t="s">
         <v>85</v>
       </c>
@@ -7261,8 +7267,8 @@
       <c r="E7" s="132"/>
       <c r="F7" s="132"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="69" t="s">
         <v>163</v>
@@ -7278,7 +7284,7 @@
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="69">
         <v>1</v>
@@ -7294,7 +7300,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="69">
         <v>1</v>
@@ -7310,7 +7316,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" ht="94.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="94.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="69">
         <v>2</v>
@@ -7325,7 +7331,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="69">
         <v>3</v>
@@ -7341,7 +7347,7 @@
       </c>
       <c r="F13" s="46"/>
     </row>
-    <row r="14" spans="1:6" ht="104.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="104.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="69">
         <v>4</v>
@@ -7357,7 +7363,7 @@
       </c>
       <c r="F14" s="67"/>
     </row>
-    <row r="15" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="69">
         <v>5</v>
@@ -7373,7 +7379,7 @@
       </c>
       <c r="F15" s="67"/>
     </row>
-    <row r="16" spans="1:6" ht="112.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="112.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="69">
         <v>6</v>
@@ -7389,7 +7395,7 @@
       </c>
       <c r="F16" s="67"/>
     </row>
-    <row r="17" spans="1:6" ht="80.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="111">
         <v>7</v>
@@ -7405,7 +7411,7 @@
       </c>
       <c r="F17" s="67"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="71"/>
       <c r="C18" s="70"/>
@@ -7413,7 +7419,7 @@
       <c r="E18" s="71"/>
       <c r="F18" s="67"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="71"/>
       <c r="C19" s="70"/>
@@ -7421,42 +7427,42 @@
       <c r="E19" s="71"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="71"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
       <c r="E20" s="71"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="71"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="71"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="E25" s="30"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="28"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -7464,64 +7470,64 @@
       <c r="E27" s="30"/>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="49"/>
       <c r="D28" s="31"/>
       <c r="E28" s="62"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" s="49"/>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="28"/>
       <c r="C36" s="49"/>
       <c r="D36" s="61"/>
       <c r="E36" s="62"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="56" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="133" t="s">
         <v>98</v>
       </c>
@@ -7531,7 +7537,7 @@
       <c r="E46" s="133"/>
       <c r="F46" s="133"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="133" t="s">
         <v>99</v>
       </c>
@@ -7541,7 +7547,7 @@
       <c r="E47" s="133"/>
       <c r="F47" s="133"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="133" t="s">
         <v>92</v>
       </c>
@@ -7551,36 +7557,36 @@
       <c r="E48" s="133"/>
       <c r="F48" s="133"/>
     </row>
-    <row r="54" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C54" s="13"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
       <c r="F54" s="39"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="13"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F62" s="28"/>
     </row>
-    <row r="63" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
     </row>
@@ -7608,28 +7614,28 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -7645,7 +7651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -7653,7 +7659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>171</v>
       </c>
@@ -7661,10 +7667,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F7" s="13"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -7678,10 +7684,10 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="134" t="s">
         <v>52</v>
       </c>
@@ -7691,7 +7697,7 @@
       <c r="E11" s="134"/>
       <c r="F11" s="134"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="134" t="s">
         <v>58</v>
       </c>
@@ -7701,12 +7707,12 @@
       <c r="E12" s="134"/>
       <c r="F12" s="134"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
         <v>53</v>
       </c>
@@ -7716,10 +7722,10 @@
       <c r="E15" s="136"/>
       <c r="F15" s="136"/>
     </row>
-    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="135" t="s">
         <v>42</v>
       </c>
@@ -7729,7 +7735,7 @@
       <c r="E17" s="135"/>
       <c r="F17" s="135"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="136" t="s">
         <v>110</v>
       </c>
@@ -7739,7 +7745,7 @@
       <c r="E18" s="136"/>
       <c r="F18" s="136"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="137" t="s">
         <v>111</v>
       </c>
@@ -7749,10 +7755,10 @@
       <c r="E19" s="137"/>
       <c r="F19" s="137"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="138" t="s">
         <v>112</v>
       </c>
@@ -7763,7 +7769,7 @@
       <c r="F21" s="138"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="124" t="s">
         <v>228</v>
       </c>
@@ -7773,12 +7779,12 @@
       <c r="E22" s="124"/>
       <c r="F22" s="124"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="60" t="s">
         <v>2</v>
       </c>
@@ -7795,8 +7801,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A22:F22"/>
@@ -7824,29 +7830,29 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="120" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="120" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="120" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="120" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="120" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="120" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="120" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="120" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="120" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="120" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="120" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="120" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="120" customWidth="1"/>
     <col min="8" max="8" width="5" style="120" customWidth="1"/>
     <col min="9" max="9" width="6" style="120" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="120" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="120" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="120" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="120" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="120" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="120" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="120" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="120" customWidth="1"/>
-    <col min="18" max="16384" width="2.7109375" style="120"/>
+    <col min="10" max="10" width="5.6640625" style="120" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" style="120" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" style="120" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="120" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="120" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="120" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="120" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" style="120" customWidth="1"/>
+    <col min="18" max="16384" width="2.6640625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7868,7 +7874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -7890,7 +7896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
         <v>170</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
         <v>171</v>
       </c>
@@ -7933,7 +7939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -7951,9 +7957,9 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="131" t="s">
         <v>60</v>
       </c>
@@ -7973,7 +7979,7 @@
       <c r="O10" s="131"/>
       <c r="P10" s="131"/>
     </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="131" t="s">
         <v>61</v>
       </c>
@@ -7993,7 +7999,7 @@
       <c r="O11" s="131"/>
       <c r="P11" s="131"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -8006,7 +8012,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
         <v>41</v>
       </c>
@@ -8026,7 +8032,7 @@
       <c r="O13" s="135"/>
       <c r="P13" s="135"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
         <v>53</v>
       </c>
@@ -8046,7 +8052,7 @@
       <c r="O14" s="136"/>
       <c r="P14" s="136"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -8059,7 +8065,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="135" t="s">
         <v>42</v>
       </c>
@@ -8079,7 +8085,7 @@
       <c r="O16" s="135"/>
       <c r="P16" s="135"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
         <v>43</v>
       </c>
@@ -8099,7 +8105,7 @@
       <c r="O17" s="136"/>
       <c r="P17" s="136"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
         <v>44</v>
       </c>
@@ -8119,10 +8125,10 @@
       <c r="O18" s="137"/>
       <c r="P18" s="137"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E19" s="121"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="139" t="s">
         <v>55</v>
       </c>
@@ -8142,7 +8148,7 @@
       <c r="O20" s="139"/>
       <c r="P20" s="139"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="140" t="s">
         <v>229</v>
       </c>
@@ -8162,12 +8168,12 @@
       <c r="O21" s="140"/>
       <c r="P21" s="140"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="141" t="s">
         <v>63</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="142"/>
       <c r="B27" s="141"/>
       <c r="C27" s="141"/>
@@ -8273,27 +8279,27 @@
       <selection activeCell="A14" sqref="A14:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8315,7 +8321,7 @@
       </c>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -8337,7 +8343,7 @@
       </c>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>170</v>
       </c>
@@ -8359,7 +8365,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
@@ -8379,7 +8385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -8396,7 +8402,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -8413,7 +8419,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="145" t="s">
         <v>49</v>
       </c>
@@ -8432,7 +8438,7 @@
       <c r="N7" s="145"/>
       <c r="O7" s="145"/>
     </row>
-    <row r="8" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
         <v>50</v>
       </c>
@@ -8451,7 +8457,7 @@
       <c r="N8" s="135"/>
       <c r="O8" s="135"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -8468,7 +8474,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
         <v>41</v>
       </c>
@@ -8487,7 +8493,7 @@
       <c r="N10" s="135"/>
       <c r="O10" s="135"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="146" t="s">
         <v>51</v>
       </c>
@@ -8506,7 +8512,7 @@
       <c r="N11" s="146"/>
       <c r="O11" s="146"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8523,7 +8529,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
         <v>42</v>
       </c>
@@ -8542,7 +8548,7 @@
       <c r="N13" s="135"/>
       <c r="O13" s="135"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="146" t="s">
         <v>43</v>
       </c>
@@ -8561,7 +8567,7 @@
       <c r="N14" s="146"/>
       <c r="O14" s="146"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="137" t="s">
         <v>44</v>
       </c>
@@ -8580,7 +8586,7 @@
       <c r="N15" s="137"/>
       <c r="O15" s="137"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -8597,7 +8603,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -8614,7 +8620,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="139" t="s">
         <v>45</v>
       </c>
@@ -8633,7 +8639,7 @@
       <c r="N18" s="139"/>
       <c r="O18" s="139"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="140" t="s">
         <v>230</v>
       </c>
@@ -8652,7 +8658,7 @@
       <c r="N19" s="140"/>
       <c r="O19" s="140"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -8669,7 +8675,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -8686,7 +8692,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -8703,7 +8709,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -8720,7 +8726,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
@@ -8739,7 +8745,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>47</v>
       </c>
@@ -8758,7 +8764,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -8775,7 +8781,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="142" t="s">
         <v>2</v>
       </c>
@@ -8806,7 +8812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="142"/>
       <c r="B28" s="141"/>
       <c r="C28" s="58" t="s">
@@ -8883,17 +8889,17 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8901,7 +8907,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>170</v>
       </c>
@@ -8917,7 +8923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
@@ -8925,7 +8931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="131" t="s">
         <v>149</v>
       </c>
@@ -8941,7 +8947,7 @@
       <c r="K8" s="131"/>
       <c r="L8" s="131"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
         <v>41</v>
       </c>
@@ -8961,7 +8967,7 @@
       <c r="O10" s="75"/>
       <c r="P10" s="63"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="146" t="s">
         <v>51</v>
       </c>
@@ -8980,7 +8986,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8997,7 +9003,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
         <v>42</v>
       </c>
@@ -9016,7 +9022,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="146" t="s">
         <v>43</v>
       </c>
@@ -9035,7 +9041,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="137" t="s">
         <v>44</v>
       </c>
@@ -9054,7 +9060,7 @@
       <c r="N15" s="76"/>
       <c r="O15" s="76"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="139" t="s">
         <v>45</v>
       </c>
@@ -9070,7 +9076,7 @@
       <c r="K17" s="139"/>
       <c r="L17" s="139"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="140" t="s">
         <v>231</v>
       </c>
@@ -9086,12 +9092,12 @@
       <c r="K18" s="140"/>
       <c r="L18" s="140"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -9151,24 +9157,24 @@
       <selection activeCell="A20" sqref="A20:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9176,7 +9182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>170</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>171</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="131" t="s">
         <v>149</v>
       </c>
@@ -9220,7 +9226,7 @@
       <c r="O9" s="131"/>
       <c r="P9" s="131"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="135" t="s">
         <v>41</v>
       </c>
@@ -9240,7 +9246,7 @@
       <c r="O11" s="135"/>
       <c r="P11" s="135"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="146" t="s">
         <v>51</v>
       </c>
@@ -9260,7 +9266,7 @@
       <c r="O12" s="146"/>
       <c r="P12" s="146"/>
     </row>
-    <row r="13" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -9274,7 +9280,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="135" t="s">
         <v>42</v>
       </c>
@@ -9294,7 +9300,7 @@
       <c r="O14" s="135"/>
       <c r="P14" s="135"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="146" t="s">
         <v>43</v>
       </c>
@@ -9314,7 +9320,7 @@
       <c r="O15" s="146"/>
       <c r="P15" s="146"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="137" t="s">
         <v>44</v>
       </c>
@@ -9334,7 +9340,7 @@
       <c r="O16" s="137"/>
       <c r="P16" s="137"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9353,7 +9359,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="73"/>
       <c r="C18" s="74"/>
@@ -9372,7 +9378,7 @@
       <c r="P18" s="73"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="139" t="s">
         <v>45</v>
       </c>
@@ -9392,7 +9398,7 @@
       <c r="O19" s="139"/>
       <c r="P19" s="139"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="140" t="s">
         <v>169</v>
       </c>
@@ -9412,12 +9418,12 @@
       <c r="O20" s="140"/>
       <c r="P20" s="140"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="72"/>
@@ -9434,7 +9440,7 @@
       <c r="N24" s="72"/>
       <c r="O24" s="72"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="148" t="s">
         <v>2</v>
       </c>
@@ -9468,7 +9474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="149"/>
       <c r="B26" s="147"/>
       <c r="C26" s="147"/>
@@ -9490,7 +9496,7 @@
       <c r="O26" s="147"/>
       <c r="P26" s="147"/>
     </row>
-    <row r="27" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="149"/>
       <c r="B27" s="147"/>
       <c r="C27" s="147"/>
@@ -9526,7 +9532,7 @@
       </c>
       <c r="P27" s="147"/>
     </row>
-    <row r="28" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="150"/>
       <c r="B28" s="147"/>
       <c r="C28" s="147"/>

--- a/app/src/main/res/raw/report3.xlsx
+++ b/app/src/main/res/raw/report3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="907" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="907" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Titul" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Titul!$A$1:$Q$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Uzo!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Vedomost!$A$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">VO!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">VO!$A$1:$F$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">Zakluchenie!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -1961,6 +1961,36 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1985,30 +2015,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2033,6 +2039,15 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2048,14 +2063,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2066,12 +2078,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2096,11 +2102,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2147,12 +2153,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2613,20 +2613,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -2634,20 +2634,20 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
@@ -2671,44 +2671,44 @@
     <row r="6" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
@@ -2722,25 +2722,25 @@
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="98"/>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143" t="s">
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143" t="s">
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -2777,22 +2777,22 @@
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="141"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -2830,25 +2830,25 @@
       <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2898,71 +2898,71 @@
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151" t="s">
+      <c r="A21" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
     </row>
     <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="142"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
@@ -3002,19 +3002,19 @@
       <c r="A28" s="101"/>
       <c r="B28" s="101"/>
       <c r="C28" s="101"/>
-      <c r="D28" s="149" t="s">
+      <c r="D28" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150" t="s">
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
       <c r="M28" s="101"/>
       <c r="N28" s="101"/>
       <c r="O28" s="101"/>
@@ -3025,19 +3025,19 @@
       <c r="A29" s="102"/>
       <c r="B29" s="102"/>
       <c r="C29" s="102"/>
-      <c r="D29" s="149" t="s">
+      <c r="D29" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150" t="s">
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
       <c r="M29" s="102"/>
       <c r="N29" s="102"/>
       <c r="O29" s="102"/>
@@ -3045,114 +3045,114 @@
       <c r="Q29" s="102"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150" t="s">
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
     </row>
     <row r="31" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="137" t="s">
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="146"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="H34" s="89"/>
     </row>
     <row r="35" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="139"/>
+      <c r="P35" s="139"/>
+      <c r="Q35" s="139"/>
     </row>
     <row r="36" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
     </row>
     <row r="37" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
@@ -3215,28 +3215,38 @@
       <c r="E52" s="18"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="146" t="s">
+      <c r="A54" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="146"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="146"/>
-      <c r="N54" s="146"/>
-      <c r="O54" s="146"/>
-      <c r="P54" s="146"/>
-      <c r="Q54" s="146"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A33:Q33"/>
     <mergeCell ref="A35:Q35"/>
     <mergeCell ref="A54:Q54"/>
@@ -3253,16 +3263,6 @@
     <mergeCell ref="A36:Q36"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:L30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q7" r:id="rId1" display="www.alpha-etl.ru"/>
@@ -3298,99 +3298,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="G1" s="172" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="G1" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="G2" s="172" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="G3" s="172" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="G3" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="G4" s="159" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="G4" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
     </row>
     <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="155" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
       <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -3407,19 +3407,19 @@
       <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
@@ -3427,19 +3427,19 @@
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -3463,57 +3463,57 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
       <c r="L15" s="56"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
@@ -3533,35 +3533,35 @@
       <c r="K16" s="112"/>
     </row>
     <row r="17" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
       <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="185" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
       <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -3718,35 +3718,35 @@
       <c r="K29" s="112"/>
     </row>
     <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="186" t="s">
+      <c r="C31" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="D31" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="184" t="s">
+      <c r="E31" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="184" t="s">
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="J31" s="184" t="s">
+      <c r="J31" s="186" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="185"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="187"/>
       <c r="F32" s="109" t="s">
         <v>27</v>
       </c>
@@ -3756,19 +3756,13 @@
       <c r="H32" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="I31:I32"/>
@@ -3784,6 +3778,12 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
@@ -3797,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3814,67 +3814,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="E1" s="172" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="E1" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="E2" s="172" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="E2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="E3" s="172" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="E3" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="E4" s="159" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="E4" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
       <c r="I6" s="55"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
@@ -4298,154 +4298,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="G1" s="140" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="G1" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="G2" s="172" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="G3" s="172" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="G3" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="G4" s="159" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="G4" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
     </row>
     <row r="8" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="189"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="193"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="195"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="189"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -4468,20 +4468,20 @@
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="196" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -4503,18 +4503,18 @@
       <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
@@ -4730,58 +4730,53 @@
       <c r="B36" s="10"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="188" t="s">
+      <c r="A38" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="190"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:L4"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A40:K40"/>
@@ -4792,6 +4787,11 @@
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
@@ -4834,21 +4834,21 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="196"/>
-      <c r="C70" s="196"/>
-      <c r="D70" s="196"/>
-      <c r="E70" s="196"/>
-      <c r="F70" s="196"/>
-      <c r="G70" s="196"/>
-      <c r="H70" s="196"/>
-      <c r="I70" s="196"/>
-      <c r="J70" s="196"/>
-      <c r="K70" s="196"/>
-      <c r="L70" s="196"/>
-      <c r="M70" s="196"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="198"/>
+      <c r="G70" s="198"/>
+      <c r="H70" s="198"/>
+      <c r="I70" s="198"/>
+      <c r="J70" s="198"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="198"/>
+      <c r="M70" s="198"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G71" s="40"/>
@@ -4928,14 +4928,14 @@
       <c r="E76" s="81"/>
       <c r="F76" s="81"/>
       <c r="G76" s="81"/>
-      <c r="H76" s="197">
+      <c r="H76" s="199">
         <v>13071613</v>
       </c>
-      <c r="I76" s="197"/>
-      <c r="J76" s="197"/>
-      <c r="K76" s="197"/>
-      <c r="L76" s="197"/>
-      <c r="M76" s="197"/>
+      <c r="I76" s="199"/>
+      <c r="J76" s="199"/>
+      <c r="K76" s="199"/>
+      <c r="L76" s="199"/>
+      <c r="M76" s="199"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="81" t="s">
@@ -4978,14 +4978,14 @@
       <c r="E79" s="81"/>
       <c r="F79" s="81"/>
       <c r="G79" s="81"/>
-      <c r="H79" s="198" t="s">
+      <c r="H79" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="I79" s="198"/>
-      <c r="J79" s="198"/>
-      <c r="K79" s="198"/>
-      <c r="L79" s="198"/>
-      <c r="M79" s="198"/>
+      <c r="I79" s="200"/>
+      <c r="J79" s="200"/>
+      <c r="K79" s="200"/>
+      <c r="L79" s="200"/>
+      <c r="M79" s="200"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="81" t="s">
@@ -5073,22 +5073,22 @@
       <c r="L84" s="80"/>
     </row>
     <row r="85" spans="2:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="198" t="s">
+      <c r="B85" s="200" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="198"/>
-      <c r="D85" s="198"/>
-      <c r="E85" s="198"/>
-      <c r="F85" s="198"/>
-      <c r="G85" s="198"/>
-      <c r="H85" s="198" t="s">
+      <c r="C85" s="200"/>
+      <c r="D85" s="200"/>
+      <c r="E85" s="200"/>
+      <c r="F85" s="200"/>
+      <c r="G85" s="200"/>
+      <c r="H85" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="I85" s="198"/>
-      <c r="J85" s="198"/>
-      <c r="K85" s="198"/>
-      <c r="L85" s="198"/>
-      <c r="M85" s="198"/>
+      <c r="I85" s="200"/>
+      <c r="J85" s="200"/>
+      <c r="K85" s="200"/>
+      <c r="L85" s="200"/>
+      <c r="M85" s="200"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="81" t="s">
@@ -5436,20 +5436,20 @@
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
       <c r="M1" s="78"/>
@@ -5474,18 +5474,18 @@
       <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78"/>
@@ -5509,18 +5509,18 @@
       <c r="AF2" s="18"/>
     </row>
     <row r="3" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
       <c r="K3" s="78"/>
       <c r="L3" s="78"/>
       <c r="M3" s="78"/>
@@ -5544,18 +5544,18 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
       <c r="K4" s="78"/>
       <c r="L4" s="78"/>
       <c r="M4" s="78"/>
@@ -5579,10 +5579,10 @@
       <c r="AF4" s="18"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5772,18 +5772,18 @@
       <c r="AD10" s="78"/>
     </row>
     <row r="11" spans="1:32" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
@@ -7189,18 +7189,18 @@
       <c r="AD62" s="78"/>
     </row>
     <row r="63" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="152" t="s">
+      <c r="A63" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="152"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="152"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
@@ -7223,18 +7223,18 @@
       <c r="AD63" s="78"/>
     </row>
     <row r="64" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="152" t="s">
+      <c r="A64" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="152"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
@@ -7257,18 +7257,18 @@
       <c r="AD64" s="78"/>
     </row>
     <row r="65" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="152" t="s">
+      <c r="A65" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="152"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="152"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
@@ -7616,51 +7616,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="160" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="159"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="159"/>
+      <c r="F2" s="161"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="159"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="159"/>
+      <c r="F4" s="161"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -7682,14 +7682,14 @@
       <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -7811,13 +7811,13 @@
       <c r="B23" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="136" t="s">
         <v>183</v>
       </c>
       <c r="D23" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="200" t="s">
+      <c r="E23" s="137" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7912,34 +7912,34 @@
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
     </row>
     <row r="54" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="11"/>
@@ -7999,8 +7999,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:F38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8014,51 +8014,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="166"/>
+      <c r="F1" s="163"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="166"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="167"/>
+      <c r="F3" s="164"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -8072,14 +8072,14 @@
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8090,10 +8090,10 @@
       <c r="C9" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="164"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="126" t="s">
         <v>167</v>
       </c>
@@ -8106,10 +8106,10 @@
       <c r="C10" s="125">
         <v>2</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="165">
         <v>3</v>
       </c>
-      <c r="E10" s="161"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="125">
         <v>4</v>
       </c>
@@ -8122,10 +8122,10 @@
       <c r="C11" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="161"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="125" t="s">
         <v>169</v>
       </c>
@@ -8138,10 +8138,10 @@
       <c r="C12" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="165" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="161"/>
+      <c r="E12" s="166"/>
       <c r="F12" s="125" t="s">
         <v>169</v>
       </c>
@@ -8154,10 +8154,10 @@
       <c r="C13" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="165" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="125" t="s">
         <v>169</v>
       </c>
@@ -8170,10 +8170,10 @@
       <c r="C14" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="165" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="161"/>
+      <c r="E14" s="166"/>
       <c r="F14" s="125" t="s">
         <v>169</v>
       </c>
@@ -8186,10 +8186,10 @@
       <c r="C15" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="161"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="125" t="s">
         <v>169</v>
       </c>
@@ -8202,10 +8202,10 @@
       <c r="C16" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="161"/>
+      <c r="E16" s="166"/>
       <c r="F16" s="125" t="s">
         <v>169</v>
       </c>
@@ -8218,10 +8218,10 @@
       <c r="C17" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="161"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="125" t="s">
         <v>169</v>
       </c>
@@ -8329,34 +8329,34 @@
       <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="162"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="162"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
     </row>
     <row r="54" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="11"/>
@@ -8393,11 +8393,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A7:F7"/>
@@ -8411,6 +8406,11 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:C5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -8452,49 +8452,49 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="170" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="159" t="s">
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F7" s="11"/>
@@ -8517,24 +8517,24 @@
       <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
     </row>
     <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="112"/>
@@ -8555,14 +8555,14 @@
       <c r="F14" s="112"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
@@ -8573,34 +8573,34 @@
       <c r="F16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="112"/>
@@ -8611,23 +8611,23 @@
       <c r="F20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="168"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
     </row>
     <row r="23" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8661,11 +8661,6 @@
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
@@ -8674,6 +8669,11 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B1:C5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
@@ -8705,90 +8705,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="170"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -8808,44 +8808,44 @@
     <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
     </row>
     <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="112"/>
@@ -8866,44 +8866,44 @@
       <c r="P12" s="112"/>
     </row>
     <row r="13" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="112"/>
@@ -8924,64 +8924,64 @@
       <c r="P15" s="112"/>
     </row>
     <row r="16" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
     </row>
     <row r="17" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
     </row>
     <row r="18" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
     </row>
     <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="112"/>
@@ -9002,44 +9002,44 @@
       <c r="P19" s="112"/>
     </row>
     <row r="20" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
     </row>
     <row r="21" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="174" t="s">
+      <c r="A21" s="176" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="174"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="174"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="176"/>
     </row>
     <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -9047,43 +9047,43 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="177" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="175" t="s">
+      <c r="C26" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="177" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="177" t="s">
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="179" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
       <c r="F27" s="115" t="s">
         <v>6</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="O27" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="178"/>
+      <c r="P27" s="180"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="110"/>
@@ -9127,17 +9127,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="A16:P16"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
@@ -9148,6 +9137,17 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:O26"/>
     <mergeCell ref="P26:P27"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="H4:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -9183,89 +9183,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="170"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -9298,42 +9298,42 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
     </row>
     <row r="8" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="116"/>
@@ -9353,42 +9353,42 @@
       <c r="O9" s="116"/>
     </row>
     <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="116"/>
@@ -9408,61 +9408,61 @@
       <c r="O12" s="116"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
     </row>
     <row r="14" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="116"/>
@@ -9499,42 +9499,42 @@
       <c r="O17" s="116"/>
     </row>
     <row r="18" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
     </row>
     <row r="19" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="174"/>
-      <c r="M19" s="174"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="176"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="111"/>
@@ -9660,39 +9660,39 @@
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="175" t="s">
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175" t="s">
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175" t="s">
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175" t="s">
+      <c r="N27" s="177"/>
+      <c r="O27" s="177" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="176"/>
-      <c r="B28" s="176"/>
+      <c r="A28" s="178"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="115" t="s">
         <v>16</v>
       </c>
@@ -9729,7 +9729,7 @@
       <c r="N28" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="175"/>
+      <c r="O28" s="177"/>
     </row>
     <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="105"/>
@@ -9740,17 +9740,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A11:O11"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="A18:O18"/>
     <mergeCell ref="A19:O19"/>
@@ -9761,6 +9750,17 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
@@ -9795,155 +9795,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="G1" s="172" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="G1" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="G2" s="172" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="G3" s="172" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="G3" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="G4" s="159" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="G4" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
     </row>
     <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="155" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
     </row>
     <row r="9" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
     </row>
     <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -9966,58 +9966,58 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
@@ -10037,36 +10037,36 @@
       <c r="L16" s="112"/>
     </row>
     <row r="17" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="176" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
     </row>
     <row r="19" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="112"/>
@@ -10144,12 +10144,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:L4"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A18:L18"/>
@@ -10159,6 +10153,12 @@
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:L4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
@@ -10194,118 +10194,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="I1" s="172" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="I1" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="I2" s="172" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="I2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="I3" s="172" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="I3" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="I4" s="159" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="I4" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
     </row>
     <row r="6" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
     </row>
     <row r="9" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="112"/>
@@ -10326,44 +10326,44 @@
       <c r="P10" s="112"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
     </row>
     <row r="13" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -10384,64 +10384,64 @@
       <c r="P13" s="112"/>
     </row>
     <row r="14" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
     </row>
     <row r="17" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
@@ -10482,44 +10482,44 @@
       <c r="Q18" s="53"/>
     </row>
     <row r="19" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
     </row>
     <row r="20" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="176"/>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="112"/>
@@ -10595,118 +10595,118 @@
       <c r="O24" s="52"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="177" t="s">
+      <c r="A25" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="175" t="s">
+      <c r="C25" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="F25" s="175" t="s">
+      <c r="F25" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175" t="s">
+      <c r="G25" s="177"/>
+      <c r="H25" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175" t="s">
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175" t="s">
+      <c r="A26" s="184"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175" t="s">
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
     </row>
     <row r="27" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182" t="s">
+      <c r="A27" s="184"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="182" t="s">
+      <c r="G27" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="182" t="s">
+      <c r="H27" s="183" t="s">
         <v>228</v>
       </c>
-      <c r="I27" s="175" t="s">
+      <c r="I27" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="175"/>
-      <c r="K27" s="182" t="s">
+      <c r="J27" s="177"/>
+      <c r="K27" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="L27" s="182" t="s">
+      <c r="L27" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="182" t="s">
+      <c r="M27" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="182" t="s">
+      <c r="N27" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="182" t="s">
+      <c r="O27" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="175"/>
+      <c r="P27" s="177"/>
     </row>
     <row r="28" spans="1:17" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="178"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
       <c r="I28" s="134" t="s">
         <v>239</v>
       </c>
       <c r="J28" s="134" t="s">
         <v>240</v>
       </c>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="175"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="177"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="131"/>
@@ -10754,11 +10754,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A16:P16"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="F25:G26"/>
@@ -10775,18 +10782,11 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="K26:O26"/>
     <mergeCell ref="N27:N28"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="M27:M28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
